--- a/271025_Results_Med/output/m1/27102025_mod1_by_age_r.xlsx
+++ b/271025_Results_Med/output/m1/27102025_mod1_by_age_r.xlsx
@@ -627,7 +627,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>110 (85.3%)</t>
+          <t>110 (84.6%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="G8">
-        <v>0.1461</v>
+        <v>0.1661</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13 (10.1%)</t>
+          <t>14 (10.8%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="G9">
-        <v>0.1461</v>
+        <v>0.1661</v>
       </c>
     </row>
     <row r="10">
@@ -697,7 +697,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="G10">
-        <v>0.1461</v>
+        <v>0.1661</v>
       </c>
     </row>
     <row r="11">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="G11">
-        <v>0.1461</v>
+        <v>0.1661</v>
       </c>
     </row>
     <row r="12">
